--- a/Assignment_status.xlsx
+++ b/Assignment_status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
@@ -73,6 +73,71 @@
   <si>
     <t>DONE</t>
   </si>
+  <si>
+    <t>2. Write a program to list all the files from a dictionary of format given below:
+{
+"name": "root",
+"contents": [
+{
+"name": "boot",
+"contents": [
+{
+"name": "boot.img"
+},
+{
+"name": "kernel.img"
+},
+{
+"name": "loaders",
+"contents": [
+{
+"name": "file1",
+},
+{
+"name": "file2"
+}
+]
+}
+]
+},
+{
+"name": "/tmp",
+"contents": [
+{
+"name": "file2",
+},
+{
+"name": "file3",
+},
+{
+"name": "folder1",
+"contents": [
+.
+.
+.
+.
+]
+}
+]
+}
+]
+}
+o/p:
+boot.img
+kernel.img
+file1
+file2
+file2
+file3
+.
+.
+.
+.
+Note: Consider the dictionary nesting level is unknown while writing the program.</t>
+  </si>
+  <si>
+    <t>Asssignmet is in progree..</t>
+  </si>
 </sst>
 </file>
 
@@ -237,12 +302,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -542,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,138 +643,150 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1013,13 +1108,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="60.8571428571429" customWidth="1"/>
@@ -1027,38 +1124,57 @@
     <col min="5" max="5" width="18.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="409.5" spans="1:5">
-      <c r="A3">
+    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <f ca="1">-6:6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f ca="1">--------C6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_status.xlsx
+++ b/Assignment_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7980"/>
+    <workbookView windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -136,7 +136,97 @@
 Note: Consider the dictionary nesting level is unknown while writing the program.</t>
   </si>
   <si>
-    <t>Asssignmet is in progree..</t>
+    <t xml:space="preserve">import re
+dictionary = {
+    "name": "root",
+    "contents":
+        [
+            {
+                "name": "boot",
+                "contents":
+                    [
+                        {
+                            "name": "boot.img"
+                        },
+                        {
+                            "name": "kernel.img"
+                        },
+                        {
+                            "name": "loaders",
+                            "contents":
+                                [
+                                    {
+                                        "name": "file1.txt",
+                                    },
+                                    {
+                                        "name": "file2.py"
+                                    }
+                                ]
+                        }
+                    ]
+            },
+            {
+                "name": "/tmp",
+                "contents":
+                    [
+                        {
+                            "name": "file2.docx",
+                        },
+                        {
+                            "name": "file3.doc",
+                        },
+                        {
+                            "name": "folder1",
+                            "contents":
+                                [
+                                    {
+                                        "name": "file4.txt",
+                                    },
+                                    {
+                                        "name": "file5.py"
+                                    }
+                                ]
+                        }
+                    ]
+            }
+        ]
+}
+def print_depth(input_dict):
+    for key, value in input_dict.items():
+        if isinstance(value, list):
+            list_itr(value)
+        elif re.match(
+                r"^([a-zA-Z0-9\s_\\.\-\(\):])+(.doc|.docx|.txt|.img|.py|.jpg|.jpeg|.css|.html|.zip|.pdf|.xml|.php)",
+                value):
+            print(value)
+def list_itr(input_list):
+    for i in input_list:
+        if isinstance(i, dict):
+            print_depth(i)
+        elif re.match(r"^([a-zA-Z0-9\s_\\.\-\(\):])+(.doc|.docx|.txt|.img|.py)", i):
+            print(i)
+print("\nList of all the files from a dictionary : ")
+print('- ' * 20)
+print_depth(dictionary)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+List of all the files from a dictionary : 
+- - - - - - - - - - - - - - - - - - - - 
+boot.img
+kernel.img
+file1.txt
+file2.py
+file2.docx
+file3.doc
+file4.txt
+file5.py
+Process finished with exit code 0
+</t>
+  </si>
+  <si>
+    <t>Done..</t>
   </si>
 </sst>
 </file>
@@ -144,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,14 +249,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +278,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,35 +301,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -241,46 +339,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,15 +363,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,7 +413,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,181 +473,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,21 +598,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,6 +626,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -573,6 +660,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,44 +698,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,134 +721,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,15 +856,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1110,10 +1185,10 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="A6:E6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1121,7 +1196,7 @@
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="60.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="18.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
@@ -1145,36 +1220,34 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="409.5" spans="1:5">
-      <c r="A6" s="3">
+    <row r="6" s="2" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
-        <f ca="1">-6:6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="e">
-        <f ca="1">--------C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_status.xlsx
+++ b/Assignment_status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -228,6 +228,28 @@
   <si>
     <t>Done..</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Consider a list of strings ["random_2020-05-04 18:08_string", "random_string_2019-02-12 12:00", "string_random_2019-02-15 16:00", . . .]
+   All the strings in the list have a common format "yyyy-mm-dd hh:mm".
+   Write a program to extract the above common format and display it like: random_2020-05-04 18:08_string --&gt; 2020-05-04 18:08</t>
+  </si>
+  <si>
+    <t>import re
+data_time = re.compile(r'[0-9]{4}-(0[1-9]|1[0-2])-(0[1-9]|[1-2][0-9]|3[0-1]) (2[0-3]|[01][0-9]):[0-5][0-9]')
+list_input = ["random_2020-05-04 18:08_string", "random_string_2019-02-12 12:00", "string_random_2019-02-15 16:00"]
+print('\nList : ', list_input, '\n')
+for i in list_input:
+    data = data_time.search(i)
+    print(i, '--&gt; ' + data.group())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List :  ['random_2020-05-04 18:08_string', 'random_string_2019-02-12 12:00', 'string_random_2019-02-15 16:00'] 
+random_2020-05-04 18:08_string --&gt; 2020-05-04 18:08
+random_string_2019-02-12 12:00 --&gt; 2019-02-12 12:00
+string_random_2019-02-15 16:00 --&gt; 2019-02-15 16:00
+Process finished with exit code 0
+</t>
+  </si>
 </sst>
 </file>
 
@@ -239,13 +261,19 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -703,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,148 +749,163 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1183,36 +1226,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="A6:E6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="60.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="3"/>
+    <col min="2" max="2" width="34" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.5714285714286" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1220,16 +1265,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1237,17 +1282,34 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="195" spans="1:5">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_status.xlsx
+++ b/Assignment_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7680"/>
+    <workbookView windowWidth="20490" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>No.</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>Modified code</t>
+  </si>
+  <si>
+    <t>Output of modified code</t>
   </si>
   <si>
     <t>Daily_Status</t>
@@ -68,6 +77,43 @@
   <si>
     <t xml:space="preserve">List of files :  ['file1.txt', 'file1.pdf', 'file1.xlsx', 'file1.xls', 'file2.txt', 'file3.pdf', 'file4.mp4', 'file2.ppt.txt']
 Output :  {'.txt': ['file1.txt', 'file2.txt', 'file2.ppt.txt'], '.pdf': ['file1.pdf', 'file3.pdf'], '.xls': ['file1.xls'], '.xlsx': ['file1.xlsx'], '.mpv4': ['file4.mp4']}
+</t>
+  </si>
+  <si>
+    <t>The program should be in a coding perspective, which should be able to run on any kind of list items.
+It will not work if the list contains other different extension types.
+e.g. ['image.jpg', 'items.tmp']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import os
+txt, pdf = ([] for i in range(2))
+list_files = ["file1.txt", "file1.pdf", "file1.xlsx", "file1.xls", "file2.txt", "file3.pdf", "file4.mp4", "file2.ppt.txt"]
+print("\nList of files : ", list_files)
+print("-------------\n")
+def sorting_list(lst):
+    for file_ in lst:
+        name, ext1 = os.path.splitext(file_)
+        txt.append(ext1)
+        mylist = list(set(txt))
+        dic = {}
+    for i in range(0, len(mylist)):
+        ll = []
+        for file1 in lst:
+            name, ext = os.path.splitext(file1)
+            if mylist[i] == ext:
+                ll.append(file1)
+        dic[mylist[i]] = ll
+    print('Output : ', dic)
+    return dic
+sorting_list(list_files)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+List of files :  ['file1.txt', 'file1.pdf', 'file1.xlsx', 'file1.xls', 'file2.txt', 'file3.pdf', 'file4.mp4', 'file2.ppt.txt']
+-------------
+Output :  {'.txt': ['file1.txt', 'file2.txt', 'file2.ppt.txt'], '.xlsx': ['file1.xlsx'], '.pdf': ['file1.pdf', 'file3.pdf'], '.xls': ['file1.xls'], '.mp4': ['file4.mp4']}
+Process finished with exit code 0
 </t>
   </si>
   <si>
@@ -226,7 +272,98 @@
 </t>
   </si>
   <si>
-    <t>Done..</t>
+    <t>Same review comments like assignment 6. Do not hard code for extension types. Any extension should be acceptable by the progra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import os
+dictionary = {
+    "name": "root",
+    "contents":
+        [
+            {
+                "name": "boot",
+                "contents":
+                    [
+                        {
+                            "name": "boot.img"
+                        },
+                        {
+                            "name": "kernel.img"
+                        },
+                        {
+                            "name": "loaders",
+                            "contents":
+                                [
+                                    {
+                                        "name": "file1.txt",
+                                    },
+                                    {
+                                        "name": "file2.py"
+                                    }
+                                ]
+                        }
+                    ]
+            },
+            {
+                "name": "/tmp",
+                "contents":
+                    [
+                        {
+                            "name": "file2.docx",
+                        },
+                        {
+                            "name": "file3.doc",
+                        },
+                        {
+                            "name": "folder1",
+                            "contents":
+                                [
+                                    {
+                                        "name": "file4.txt",
+                                    },
+                                    {
+                                        "name": "file5.py"
+                                    }
+                                ]
+                        }
+                    ]
+            }
+        ]
+}
+print("Input files : ", dictionary)
+def print_depth(input_dict):
+    for key, value in input_dict.items():
+        if isinstance(value, list):
+            list_itr(value)
+        elif value.__contains__('.'):
+            print(value)
+def list_itr(input_list):
+    for i in input_list:
+        if isinstance(i, dict):
+            print_depth(i)
+        elif i.__contains__('.'):
+            print(i)
+print("\nList of all the files from a dictionary : ")
+print('- ' * 20)
+print_depth(dictionary)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of all the files from a dictionary : 
+- - - - - - - - - - - - - - - - - - - - 
+boot.img
+kernel.img
+file1.txt
+file2.py
+file2.docx
+file3.doc
+file4.txt
+file5.py
+Process finished with exit code 0
+</t>
+  </si>
+  <si>
+    <t>In progress...</t>
   </si>
   <si>
     <t xml:space="preserve"> Consider a list of strings ["random_2020-05-04 18:08_string", "random_string_2019-02-12 12:00", "string_random_2019-02-15 16:00", . . .]
@@ -249,6 +386,10 @@
 string_random_2019-02-15 16:00 --&gt; 2019-02-15 16:00
 Process finished with exit code 0
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic is correct. 
+However, the code can be optimized. Use slicing, importing re would not be required. Only a for loop and print statement would be sufficient. </t>
   </si>
 </sst>
 </file>
@@ -261,7 +402,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +417,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -283,8 +437,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +447,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,53 +468,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -376,14 +516,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -392,12 +524,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -412,9 +560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,181 +588,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,11 +776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +806,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +829,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,30 +863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -731,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,31 +896,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,97 +929,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,23 +1036,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1226,90 +1373,134 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="A3:E3"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="3"/>
     <col min="2" max="2" width="34" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.8571428571429" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.0952380952381" style="3" customWidth="1"/>
     <col min="4" max="4" width="43" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.5714285714286" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="3"/>
+    <col min="6" max="6" width="31.4285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="48.7428571428571" style="3" customWidth="1"/>
+    <col min="8" max="8" width="39.5714285714286" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.8571428571429" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:9">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="409.5" spans="1:5">
+    <row r="4" ht="45" spans="6:6">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="6:6">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="409.5" spans="1:9">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="195" spans="1:5">
+    <row r="7" ht="60" spans="6:7">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="195" spans="1:9">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_status.xlsx
+++ b/Assignment_status.xlsx
@@ -86,16 +86,16 @@
   </si>
   <si>
     <t xml:space="preserve">import os
-txt, pdf = ([] for i in range(2))
 list_files = ["file1.txt", "file1.pdf", "file1.xlsx", "file1.xls", "file2.txt", "file3.pdf", "file4.mp4", "file2.ppt.txt"]
 print("\nList of files : ", list_files)
 print("-------------\n")
 def sorting_list(lst):
+    ext_lis = []
+    dic = {}
     for file_ in lst:
         name, ext1 = os.path.splitext(file_)
-        txt.append(ext1)
-        mylist = list(set(txt))
-        dic = {}
+        ext_lis.append(ext1)
+        mylist = list(set(ext_lis))
     for i in range(0, len(mylist)):
         ll = []
         for file1 in lst:
@@ -567,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,55 +576,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,152 +884,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,26 +1039,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1375,23 +1384,24 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="I8:J8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="F6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="3"/>
-    <col min="2" max="2" width="34" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.0952380952381" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.4285714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.7428571428571" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.5714285714286" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="9.14285714285714" style="2"/>
+    <col min="2" max="2" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.0952380952381" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="3"/>
+    <col min="6" max="6" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.7428571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.5714285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8571428571429" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
@@ -1420,8 +1430,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:9">
-      <c r="A3" s="2">
+    <row r="3" s="1" customFormat="1" ht="409.5" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1442,7 +1452,7 @@
       <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1452,8 +1462,8 @@
     <row r="5" spans="6:6">
       <c r="F5" s="9"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="409.5" spans="1:9">
-      <c r="A6" s="2">
+    <row r="6" s="1" customFormat="1" ht="409.5" spans="1:9">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1468,13 +1478,13 @@
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1482,8 +1492,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="195" spans="1:9">
-      <c r="A8" s="2">
+    <row r="8" s="1" customFormat="1" ht="195" spans="1:9">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1499,7 +1509,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Assignment_status.xlsx
+++ b/Assignment_status.xlsx
@@ -398,9 +398,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -424,37 +424,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,14 +446,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -484,16 +521,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,60 +566,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,7 +582,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,181 +660,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +791,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -808,48 +811,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +832,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -884,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,144 +896,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1048,19 +1039,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1387,21 +1372,21 @@
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="F6:I6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.0952380952381" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="3"/>
-    <col min="6" max="6" width="31.4285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.7428571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.5714285714286" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8571428571429" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.0952380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="2"/>
+    <col min="6" max="6" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5714285714286" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
@@ -1434,81 +1419,81 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="6:6">
-      <c r="F4" s="9"/>
+    <row r="4" spans="6:6">
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="6:6">
-      <c r="F5" s="9"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="409.5" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="60" spans="6:7">
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+    <row r="7" spans="6:7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="195" spans="1:9">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="6"/>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>

--- a/Assignment_status.xlsx
+++ b/Assignment_status.xlsx
@@ -399,8 +399,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -424,15 +424,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,12 +454,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -461,9 +484,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +537,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -485,83 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,25 +582,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,19 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,133 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,30 +773,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -811,6 +787,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,15 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -859,6 +844,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,130 +896,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,7 +1372,7 @@
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
